--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179213.5031023996</v>
+        <v>175031.7925302613</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219457</v>
+        <v>33937088.13219458</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5132856.847395469</v>
+        <v>5132856.847395468</v>
       </c>
     </row>
     <row r="11">
@@ -1135,16 +1135,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>62.89133233283847</v>
+        <v>62.89133233283841</v>
       </c>
       <c r="D8" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E8" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="F8" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>25.40191187022064</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>86.88034699023014</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="C10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="D10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>91.32747982963546</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>91.32747982963552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>357.3673342322811</v>
+        <v>125.3589636692286</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>133.3079226108685</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>185.0832217507329</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>234.3599588242721</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>199.1695493420036</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>43.55349484583913</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>189.1209978888301</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>245.0839525462857</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>111.0125920504344</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>116.8094009873584</v>
       </c>
       <c r="H19" t="n">
-        <v>53.19117033386377</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>138.7679346478756</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>321.9370827829813</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>94.13208900788005</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0.8098965587381053</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2298,7 +2298,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1784694210818952</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>258.2574720670975</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>53.19117033386334</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>53.1911703338642</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>32.52127443762062</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>149.6157531058518</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>23.92542949176416</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>54.31661462075046</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2800,10 +2800,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>143.4254984568481</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>109.5540470185018</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>82.77350497189148</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>53.19117033386421</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5540470185018</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>192.9620310498024</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>49.34995949258661</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>55.9668410237007</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>242.8438251854359</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>213.5382021707739</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>5.348722239840659</v>
       </c>
       <c r="G37" t="n">
-        <v>53.1911703338642</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>302.8196695381251</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>401.5266111030784</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>146.1924382374063</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>170.3034090720304</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3745,19 +3745,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>263.9127822410213</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
-        <v>139.4214382638856</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>171.8736578987115</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>109.5540470185018</v>
+        <v>361.4649050157276</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>60.93349615186469</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>74.42811009354851</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>433.9136461365499</v>
+        <v>433.9136461365497</v>
       </c>
       <c r="C8" t="n">
-        <v>370.3870478205515</v>
+        <v>370.3870478205513</v>
       </c>
       <c r="D8" t="n">
-        <v>250.1002694948333</v>
+        <v>250.1002694948331</v>
       </c>
       <c r="E8" t="n">
-        <v>129.8134911691151</v>
+        <v>129.813491169115</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585568</v>
+        <v>23.57954741585561</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558026</v>
+        <v>55.41632306558023</v>
       </c>
       <c r="K8" t="n">
-        <v>103.131396931807</v>
+        <v>103.1313969318069</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183095</v>
+        <v>162.3261653183094</v>
       </c>
       <c r="M8" t="n">
         <v>228.1917507590931</v>
@@ -4822,34 +4822,34 @@
         <v>358.3244950336424</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455671</v>
+        <v>412.2654147455669</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245015</v>
+        <v>452.7727990245012</v>
       </c>
       <c r="R8" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="S8" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="T8" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="U8" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="V8" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="W8" t="n">
-        <v>475.5205916212814</v>
+        <v>475.5205916212811</v>
       </c>
       <c r="X8" t="n">
-        <v>460.4185322409961</v>
+        <v>460.4185322409959</v>
       </c>
       <c r="Y8" t="n">
-        <v>456.1728125810536</v>
+        <v>456.1728125810534</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210.1035886798009</v>
+        <v>388.577715917086</v>
       </c>
       <c r="C9" t="n">
-        <v>103.6471275164432</v>
+        <v>282.1212547537283</v>
       </c>
       <c r="D9" t="n">
-        <v>103.6471275164432</v>
+        <v>187.0309659002816</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396879</v>
+        <v>92.91055122723526</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114684</v>
+        <v>16.43678475114683</v>
       </c>
       <c r="J9" t="n">
-        <v>35.3985502243751</v>
+        <v>67.70899752367932</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369105</v>
+        <v>100.1176749029952</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193804</v>
+        <v>143.6951411186846</v>
       </c>
       <c r="M9" t="n">
-        <v>162.2375414767964</v>
+        <v>194.5479887761005</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936376</v>
+        <v>246.7467599936375</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999703</v>
+        <v>294.4984377999702</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018324</v>
+        <v>332.8233691018323</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328076</v>
+        <v>358.4425707328074</v>
       </c>
       <c r="R9" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="S9" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="T9" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="U9" t="n">
-        <v>450.6771453312373</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="V9" t="n">
-        <v>450.6771453312373</v>
+        <v>388.577715917086</v>
       </c>
       <c r="W9" t="n">
-        <v>450.6771453312373</v>
+        <v>388.577715917086</v>
       </c>
       <c r="X9" t="n">
-        <v>330.3903670055191</v>
+        <v>388.577715917086</v>
       </c>
       <c r="Y9" t="n">
-        <v>210.1035886798009</v>
+        <v>388.577715917086</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.1002694948333</v>
+        <v>342.3502491207275</v>
       </c>
       <c r="C10" t="n">
-        <v>129.8134911691151</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396879</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396879</v>
+        <v>129.813491169115</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396879</v>
+        <v>9.526712843396876</v>
       </c>
       <c r="J10" t="n">
         <v>108.002400301115</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381514</v>
+        <v>127.5511863760668</v>
       </c>
       <c r="L10" t="n">
-        <v>262.185449439805</v>
+        <v>152.566902140524</v>
       </c>
       <c r="M10" t="n">
-        <v>288.5610142512601</v>
+        <v>178.9424669519791</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837848</v>
+        <v>296.8355383890154</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360032</v>
+        <v>414.7286098260518</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328076</v>
+        <v>462.2461375895322</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.335642169844</v>
+        <v>476.3356421698438</v>
       </c>
       <c r="R10" t="n">
-        <v>462.6370274464459</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="S10" t="n">
-        <v>462.6370274464459</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="T10" t="n">
-        <v>462.6370274464459</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="U10" t="n">
-        <v>462.6370274464459</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="V10" t="n">
-        <v>462.6370274464459</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="W10" t="n">
-        <v>462.6370274464459</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="X10" t="n">
-        <v>462.6370274464459</v>
+        <v>462.6370274464457</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.3870478205515</v>
+        <v>462.6370274464457</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1941.185114027047</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.185114027047</v>
+        <v>1307.330533248896</v>
       </c>
       <c r="D11" t="n">
-        <v>1505.275329201492</v>
+        <v>871.4207484233402</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
@@ -5038,25 +5038,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027047</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y11" t="n">
-        <v>1941.185114027047</v>
+        <v>1745.473006065472</v>
       </c>
     </row>
     <row r="12">
@@ -5135,10 +5135,10 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895473</v>
@@ -5202,22 +5202,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>393.4422361027644</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>935.5229194890233</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5229,22 +5229,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2215.901038951971</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>2028.948289708806</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316.9281030050443</v>
+        <v>1110.030088953173</v>
       </c>
       <c r="C14" t="n">
-        <v>316.9281030050443</v>
+        <v>1110.030088953173</v>
       </c>
       <c r="D14" t="n">
-        <v>316.9281030050443</v>
+        <v>1110.030088953173</v>
       </c>
       <c r="E14" t="n">
-        <v>316.9281030050443</v>
+        <v>676.2553441114678</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>248.3879145206756</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V14" t="n">
-        <v>1785.939375850675</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W14" t="n">
-        <v>1381.083921261709</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X14" t="n">
-        <v>961.9414578410193</v>
+        <v>1536.32965943808</v>
       </c>
       <c r="Y14" t="n">
-        <v>553.6553341406727</v>
+        <v>1536.32965943808</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5348,7 +5348,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895473</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>526.0156699571453</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>526.0156699571453</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>526.0156699571453</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>356.2576662078826</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895473</v>
@@ -5445,10 +5445,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5478,10 +5478,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>945.2539593620243</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y16" t="n">
-        <v>717.8342886761325</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1128.043535737734</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="C17" t="n">
-        <v>1128.043535737734</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="D17" t="n">
-        <v>1128.043535737734</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E17" t="n">
-        <v>694.2687908960288</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F17" t="n">
-        <v>694.2687908960288</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
-        <v>294.766099575506</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
@@ -5518,10 +5518,10 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>2036.422394552773</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.32965943808</v>
+        <v>1617.279931132084</v>
       </c>
       <c r="Y17" t="n">
-        <v>1128.043535737734</v>
+        <v>1617.279931132084</v>
       </c>
     </row>
     <row r="18">
@@ -5573,31 +5573,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J18" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851416</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="C19" t="n">
-        <v>443.5200532683665</v>
+        <v>526.5131854584928</v>
       </c>
       <c r="D19" t="n">
-        <v>277.6420604698892</v>
+        <v>360.6351926600155</v>
       </c>
       <c r="E19" t="n">
-        <v>277.6420604698892</v>
+        <v>360.6351926600155</v>
       </c>
       <c r="F19" t="n">
-        <v>100.9350064316454</v>
+        <v>360.6351926600155</v>
       </c>
       <c r="G19" t="n">
-        <v>100.9350064316454</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>464.1452239003829</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092379</v>
+        <v>588.0160255186809</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540313</v>
@@ -5697,28 +5697,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>884.8517156860543</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="C20" t="n">
-        <v>446.7092428694776</v>
+        <v>1669.947483315069</v>
       </c>
       <c r="D20" t="n">
-        <v>446.7092428694776</v>
+        <v>1234.037698489514</v>
       </c>
       <c r="E20" t="n">
-        <v>446.7092428694776</v>
+        <v>800.2629536478089</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>372.3955240570166</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867025</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5785,19 +5785,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>1444.163810064194</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X20" t="n">
-        <v>1025.021346643504</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y20" t="n">
-        <v>1025.021346643504</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="21">
@@ -5810,31 +5810,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.081764785142</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="C22" t="n">
-        <v>520.9988465953642</v>
+        <v>586.0490229021706</v>
       </c>
       <c r="D22" t="n">
-        <v>520.9988465953642</v>
+        <v>420.1710301036933</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>420.1710301036933</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>243.4639760654495</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>358.0754347909403</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540314</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041292</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>885.0319878285612</v>
+        <v>743.9824697756188</v>
       </c>
       <c r="C23" t="n">
-        <v>446.8895150119845</v>
+        <v>743.9824697756188</v>
       </c>
       <c r="D23" t="n">
-        <v>446.8895150119845</v>
+        <v>308.0726849500633</v>
       </c>
       <c r="E23" t="n">
-        <v>446.8895150119845</v>
+        <v>308.0726849500633</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>308.0726849500633</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U23" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V23" t="n">
-        <v>1698.173566117875</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W23" t="n">
-        <v>1293.318111528908</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X23" t="n">
-        <v>1293.318111528908</v>
+        <v>1578.568163960873</v>
       </c>
       <c r="Y23" t="n">
-        <v>885.0319878285612</v>
+        <v>1170.282040260527</v>
       </c>
     </row>
     <row r="24">
@@ -6047,37 +6047,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,58 +6123,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268367</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D25" t="n">
-        <v>277.6420604698897</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="E25" t="n">
-        <v>277.6420604698897</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>100.9350064316459</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>100.9350064316459</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>358.0754347909403</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092383</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T25" t="n">
         <v>2118.080353351143</v>
@@ -6183,16 +6183,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.0563237081675</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>80.0563237081675</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>80.0563237081675</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>80.0563237081675</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>80.0563237081675</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G26" t="n">
-        <v>80.0563237081675</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.639935903078</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W26" t="n">
-        <v>1333.784481314111</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X26" t="n">
-        <v>914.6420178934219</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.3558941930753</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.2164974914552</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6547859746802</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6547859746802</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E28" t="n">
-        <v>388.6547859746802</v>
+        <v>443.520053268366</v>
       </c>
       <c r="F28" t="n">
-        <v>211.9477319364364</v>
+        <v>266.8129992301223</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>358.0754347909402</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092382</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.320157362631</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2305.46231015405</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T28" t="n">
-        <v>2063.215086057457</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1784.8284541062</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.87294597663</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1225.846541562922</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>980.4547868963341</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.0351162104423</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>627.9905772400134</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>192.0807924144579</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6505,10 +6505,10 @@
         <v>2319.861207662534</v>
       </c>
       <c r="X29" t="n">
-        <v>2209.200554108492</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.200554108492</v>
+        <v>1492.432620541498</v>
       </c>
     </row>
     <row r="30">
@@ -6521,46 +6521,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D31" t="n">
-        <v>277.6420604698897</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909401</v>
       </c>
       <c r="L31" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M31" t="n">
-        <v>910.9641928553089</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N31" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O31" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P31" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6657,16 +6657,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X31" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001357</v>
@@ -6703,10 +6703,10 @@
         <v>276.053277043581</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6736,16 +6736,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X32" t="n">
-        <v>2209.200554108492</v>
+        <v>1538.101794175671</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.200554108492</v>
+        <v>1343.190651701123</v>
       </c>
     </row>
     <row r="33">
@@ -6758,46 +6758,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>443.520053268367</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>273.7620495191042</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>97.05499548086041</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>97.05499548086041</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2303.795414797534</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.555602307689</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C35" t="n">
-        <v>728.4131294911122</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>292.5033446655567</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>292.5033446655567</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>292.5033446655567</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W35" t="n">
-        <v>1592.855172792597</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X35" t="n">
-        <v>1592.855172792597</v>
+        <v>662.40439657733</v>
       </c>
       <c r="Y35" t="n">
-        <v>1592.855172792597</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="36">
@@ -6998,40 +6998,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P36" t="n">
         <v>1488.088567599445</v>
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268367</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D37" t="n">
-        <v>277.6420604698897</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E37" t="n">
-        <v>277.6420604698897</v>
+        <v>280.4457682374011</v>
       </c>
       <c r="F37" t="n">
-        <v>100.9350064316459</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>358.0754347909403</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092383</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1415.75375978796</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1543.252671591849</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1661.018552939611</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2109.294503087636</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
         <v>2118.080353351143</v>
@@ -7131,16 +7131,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2319.861207662534</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C38" t="n">
-        <v>2013.98275358362</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D38" t="n">
-        <v>1578.072968758064</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
         <v>716.4307943255671</v>
@@ -7168,58 +7168,58 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="X38" t="n">
-        <v>2319.861207662534</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y38" t="n">
-        <v>2319.861207662534</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="39">
@@ -7232,43 +7232,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>566.2333208532364</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>393.6716093364613</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>744.992999204955</v>
+        <v>862.0820538119935</v>
       </c>
       <c r="M40" t="n">
-        <v>875.5973915434845</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N40" t="n">
-        <v>1445.355106505019</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O40" t="n">
-        <v>1982.790237078562</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2068.231909419238</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U40" t="n">
-        <v>1789.845277467981</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="V40" t="n">
-        <v>1502.889769338411</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W40" t="n">
-        <v>1230.863364924703</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X40" t="n">
-        <v>985.4716102581153</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y40" t="n">
-        <v>758.0519395722235</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.033554032792</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C41" t="n">
-        <v>916.8910812162151</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="D41" t="n">
-        <v>480.9812963906596</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2179.031472042448</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2179.031472042448</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2179.031472042448</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W41" t="n">
-        <v>1774.176017453481</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X41" t="n">
-        <v>1355.033554032792</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y41" t="n">
-        <v>1355.033554032792</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="42">
@@ -7469,37 +7469,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E43" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7575,13 +7575,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>828.1746199579901</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527956</v>
@@ -7593,28 +7593,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>2042.291283498728</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1763.904651547471</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1476.949143417901</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1204.922739004193</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>959.5309843376053</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>732.1113136517137</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7663,37 +7663,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C46" t="n">
-        <v>554.5327787731575</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6547859746801</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>122.3864607343573</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>122.3864607343573</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L46" t="n">
-        <v>326.783117436994</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M46" t="n">
-        <v>910.9641928553089</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N46" t="n">
-        <v>1480.721907816843</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>2018.157038390386</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>32.63681545384265</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>32.63681545384276</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946635</v>
+        <v>106.4970253946634</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,25 +8613,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190355</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>11.38814337090554</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>93.07541273182994</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698777</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>27.44162713805667</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340655</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>105.0002374943217</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>177.1920849464598</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>263.8716243249363</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>69.27619576520647</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>347.0837767286137</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>69.27619576520647</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>181.0222629918453</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -10035,13 +10035,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>192.4544649334016</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.27619576520624</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520624</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>156.7304232042871</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>166.4593034875525</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>192.4544649334025</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>141.4680432173442</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>10.62967161639949</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>72.06966316100664</v>
+        <v>304.0780337240591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>34.75250110090161</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>99.00273129754089</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187.6766159557866</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,16 +23503,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>196.338115065314</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>146.3469376859581</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>53.81683923109156</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>21.94038339524295</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>289.7943079926426</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23901,16 +23901,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>46.28436759624832</v>
       </c>
       <c r="H19" t="n">
-        <v>77.82944968061348</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>283.2686401321831</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>73.57058162433628</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>76.70400539372726</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>162.2838720248687</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.4102858738024</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>137.2501923402201</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>77.82944968061305</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>234.503061503908</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>265.3352856806306</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.1683390918426</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>88.66565849005734</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24688,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>286.0114989364396</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>305.3969917679806</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>107.1269275599058</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24976,16 +24976,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>305.3969917679806</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>211.2412314135407</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>81.67066052189064</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>87.01543208710711</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,7 +25168,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>152.6638392218817</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>190.6650602925692</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>169.5912612580207</v>
       </c>
       <c r="G37" t="n">
-        <v>109.9025982497426</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>130.9413785502858</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>13.42442768340396</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>93.63231361822109</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>105.2993565597141</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>165.5242151522664</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>70.23210075169331</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>67.95109395691595</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>305.3969917679806</v>
+        <v>53.4861337707548</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>109.9025982497426</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>56.59250992092875</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>635571.2203126849</v>
+        <v>635571.2203126848</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384801.6280268618</v>
+        <v>384801.6280268616</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>384801.6280268618</v>
+        <v>384801.6280268615</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>384801.6280268618</v>
+        <v>384801.6280268616</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>384801.6280268618</v>
+        <v>384801.6280268616</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>384801.6280268618</v>
+        <v>384801.6280268616</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>384801.6280268617</v>
+        <v>384801.6280268616</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384801.6280268618</v>
+        <v>384801.6280268616</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>384801.6280268617</v>
+        <v>384801.6280268616</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>300946.1639116302</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="E2" t="n">
-        <v>180892.2069959399</v>
+        <v>180892.20699594</v>
       </c>
       <c r="F2" t="n">
         <v>180892.2069959399</v>
       </c>
       <c r="G2" t="n">
+        <v>180892.20699594</v>
+      </c>
+      <c r="H2" t="n">
         <v>180892.2069959399</v>
-      </c>
-      <c r="H2" t="n">
-        <v>180892.20699594</v>
       </c>
       <c r="I2" t="n">
         <v>180892.2069959399</v>
       </c>
       <c r="J2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="K2" t="n">
         <v>180892.20699594</v>
       </c>
       <c r="L2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="M2" t="n">
         <v>180892.2069959399</v>
       </c>
       <c r="N2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959398</v>
       </c>
       <c r="O2" t="n">
         <v>180892.20699594</v>
       </c>
       <c r="P2" t="n">
-        <v>180892.2069959399</v>
+        <v>180892.20699594</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.467573058</v>
+        <v>117708.4675730579</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.245018044</v>
+        <v>439858.2450180441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.066003102</v>
+        <v>30139.06600310198</v>
       </c>
       <c r="M3" t="n">
         <v>117374.581559748</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>272112.3485802036</v>
@@ -26432,16 +26432,16 @@
         <v>15620.10484543461</v>
       </c>
       <c r="G4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="H4" t="n">
         <v>15620.10484543461</v>
       </c>
       <c r="I4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.10484543459</v>
       </c>
       <c r="J4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="K4" t="n">
         <v>15620.10484543461</v>
@@ -26450,13 +26450,13 @@
         <v>15620.10484543461</v>
       </c>
       <c r="M4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="N4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="O4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.10484543462</v>
       </c>
       <c r="P4" t="n">
         <v>15620.10484543461</v>
@@ -26487,31 +26487,31 @@
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020258</v>
+        <v>-31444.0591177042</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020258</v>
+        <v>-31444.05911770426</v>
       </c>
       <c r="D6" t="n">
-        <v>-124458.6694886691</v>
+        <v>-124458.6694886692</v>
       </c>
       <c r="E6" t="n">
-        <v>-320637.2240771765</v>
+        <v>-321191.1045203985</v>
       </c>
       <c r="F6" t="n">
-        <v>119221.0209408675</v>
+        <v>118667.1404976456</v>
       </c>
       <c r="G6" t="n">
-        <v>119221.0209408675</v>
+        <v>118667.1404976456</v>
       </c>
       <c r="H6" t="n">
-        <v>119221.0209408675</v>
+        <v>118667.1404976456</v>
       </c>
       <c r="I6" t="n">
-        <v>119221.0209408675</v>
+        <v>118667.1404976456</v>
       </c>
       <c r="J6" t="n">
-        <v>119221.0209408675</v>
+        <v>118667.1404976455</v>
       </c>
       <c r="K6" t="n">
-        <v>119221.0209408675</v>
+        <v>118667.1404976456</v>
       </c>
       <c r="L6" t="n">
-        <v>89081.95493776553</v>
+        <v>88528.07449454359</v>
       </c>
       <c r="M6" t="n">
-        <v>1846.439381119511</v>
+        <v>1292.558937897555</v>
       </c>
       <c r="N6" t="n">
-        <v>119221.0209408675</v>
+        <v>118667.1404976455</v>
       </c>
       <c r="O6" t="n">
-        <v>119221.0209408676</v>
+        <v>118667.1404976456</v>
       </c>
       <c r="P6" t="n">
-        <v>119221.0209408675</v>
+        <v>118667.1404976456</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480482</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932211</v>
@@ -26755,31 +26755,31 @@
         <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619341</v>
@@ -26804,34 +26804,34 @@
         <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="H4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="H4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480483</v>
+        <v>94.25048217480479</v>
       </c>
       <c r="E3" t="n">
         <v>372.4514459184163</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M4" t="n">
         <v>470.9979838194731</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>370.8697157555724</v>
+        <v>370.8697157555725</v>
       </c>
       <c r="D8" t="n">
         <v>312.4667764348389</v>
       </c>
       <c r="E8" t="n">
-        <v>310.3530868508267</v>
+        <v>310.3530868508268</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524233</v>
+        <v>304.5048447524234</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
@@ -27937,13 +27937,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>84.32851138425291</v>
@@ -27988,19 +27988,19 @@
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>149.1579323274275</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>110.2459957683905</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>34.2348508610478</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.137010886110417</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.81652198933624</v>
+        <v>70.81652198933629</v>
       </c>
       <c r="C10" t="n">
-        <v>51.75218385914631</v>
+        <v>51.75218385914637</v>
       </c>
       <c r="D10" t="n">
-        <v>45.13530232803153</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>76.73294388213465</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>55.85607295540039</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.8179941493973</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529839</v>
+        <v>0.3788964107529838</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623997</v>
+        <v>3.880372866623996</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555443</v>
+        <v>14.60740387555442</v>
       </c>
       <c r="J8" t="n">
-        <v>32.1583592421461</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931991</v>
+        <v>48.1970443093199</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990156</v>
+        <v>59.79269533990154</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462993</v>
+        <v>66.53089438462992</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168186</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725687</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679256</v>
+        <v>54.48577748679255</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670132</v>
+        <v>40.91654977670131</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196215</v>
+        <v>23.80085166196214</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033629</v>
+        <v>8.634101960033627</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071188</v>
+        <v>1.658619038071187</v>
       </c>
       <c r="U8" t="n">
         <v>0.0303117128602387</v>
@@ -31594,37 +31594,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250519</v>
+        <v>0.2027274522250518</v>
       </c>
       <c r="H9" t="n">
         <v>1.957920393857738</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888848</v>
+        <v>6.979870613888846</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780633</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688481</v>
+        <v>32.73603775688479</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421105</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526862</v>
+        <v>51.3665127852686</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286558</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619469</v>
+        <v>48.23401798619467</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006276</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542943</v>
+        <v>25.87798144542942</v>
       </c>
       <c r="R9" t="n">
         <v>12.58688514779752</v>
@@ -31633,7 +31633,7 @@
         <v>3.765573509531114</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457132</v>
+        <v>0.817133897345713</v>
       </c>
       <c r="U9" t="n">
         <v>0.0133373323832271</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889923</v>
+        <v>0.1699598858889922</v>
       </c>
       <c r="H10" t="n">
         <v>1.511097894540314</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643515</v>
+        <v>5.111157295643513</v>
       </c>
       <c r="J10" t="n">
         <v>12.01616393235175</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055746</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.268399762078</v>
+        <v>25.26839976207799</v>
       </c>
       <c r="M10" t="n">
         <v>26.64198465803539</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063099</v>
+        <v>26.00849781063098</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547321</v>
+        <v>24.0230573254732</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333775</v>
+        <v>20.55587565333774</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839553</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517778</v>
+        <v>7.642014505517776</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083619</v>
+        <v>2.961937284083618</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075122</v>
+        <v>0.726192239707512</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00927053923030868</v>
+        <v>0.009270539230308678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,13 +35169,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642303</v>
+        <v>14.19478239642302</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214605</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931989</v>
+        <v>48.1970443093199</v>
       </c>
       <c r="L8" t="n">
         <v>59.79269533990154</v>
@@ -35184,16 +35184,16 @@
         <v>66.53089438462993</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168186</v>
+        <v>67.60743381168183</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725691</v>
+        <v>63.83978262725685</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679259</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670134</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
         <v>23.80085166196216</v>
@@ -35251,22 +35251,22 @@
         <v>6.979870613888847</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780633</v>
+        <v>51.79011391164897</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568848</v>
+        <v>32.73603775688478</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421105</v>
+        <v>44.01764264211049</v>
       </c>
       <c r="M9" t="n">
         <v>51.36651278526861</v>
       </c>
       <c r="N9" t="n">
-        <v>85.36284698670832</v>
+        <v>52.72603153286556</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619469</v>
+        <v>48.23401798619466</v>
       </c>
       <c r="P9" t="n">
         <v>38.71205182006275</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143243</v>
+        <v>99.47039137143241</v>
       </c>
       <c r="K10" t="n">
+        <v>19.74624856055745</v>
+      </c>
+      <c r="L10" t="n">
+        <v>25.26839976207799</v>
+      </c>
+      <c r="M10" t="n">
+        <v>26.6419846580354</v>
+      </c>
+      <c r="N10" t="n">
+        <v>119.0839105424609</v>
+      </c>
+      <c r="O10" t="n">
         <v>119.083910542461</v>
       </c>
-      <c r="L10" t="n">
-        <v>36.65654313298353</v>
-      </c>
-      <c r="M10" t="n">
-        <v>26.64198465803537</v>
-      </c>
-      <c r="N10" t="n">
-        <v>26.00849781063101</v>
-      </c>
-      <c r="O10" t="n">
-        <v>24.02305732547319</v>
-      </c>
       <c r="P10" t="n">
-        <v>20.55587565333775</v>
+        <v>47.99750279139442</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.083910542461</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35503,7 +35503,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -35570,25 +35570,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>202.7781168554916</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561041</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,10 +35646,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766673</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35813,13 +35813,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562351</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>361.6495036861062</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>167.0540751263764</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>466.0392124334235</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184533</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
-        <v>167.0540751263764</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>309.8090425917337</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36539,7 +36539,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,10 +36609,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36694,7 +36694,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233645</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K28" t="n">
-        <v>254.5083025654569</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654051</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,16 +36840,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>167.0540751263761</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320033</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>227.2024143463636</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184533</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,7 +37168,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>194.3982176018708</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
@@ -37317,13 +37317,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>254.508302565457</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>236.9312946296291</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,7 +37639,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447062</v>
+        <v>300.8399982398709</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>294.241390365406</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>266.5900650540087</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125712</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>142.5533002411767</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320033</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>227.2024143463636</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
